--- a/airlinereservation.xlsx
+++ b/airlinereservation.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achowtap\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Project Profile" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="101">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -93,12 +88,6 @@
     <t>Assumptions</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                  Authority Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                             Login For Authorities</t>
-  </si>
-  <si>
     <t>“Airline reservation system” is a web based application and can be accessed over the internet.This system can be used to search flight details, reserve flight, and update/cancel any reservation.</t>
   </si>
   <si>
@@ -154,9 +143,6 @@
   </si>
   <si>
     <t>TC_AR_1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                              Role-Test Cases</t>
   </si>
   <si>
     <t>User has to login on the Authority login Page.
@@ -208,9 +194,6 @@
     <t xml:space="preserve">    skyexe2</t>
   </si>
   <si>
-    <t>Req_Role_1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Airline-exec3</t>
   </si>
   <si>
@@ -220,9 +203,6 @@
     <t>TC_AR_1.1</t>
   </si>
   <si>
-    <t>TC_AR_1.2</t>
-  </si>
-  <si>
     <t>To validate whether error message is displayed when the user dosen't select any of the options.</t>
   </si>
   <si>
@@ -230,14 +210,128 @@
   </si>
   <si>
     <t>7.Onclicking submit button error message should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                             Login For Authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                 Authority Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                   Role-Test Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                Username-Testcase</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>To validate whether the user sucessfully logins by entering valid username</t>
+  </si>
+  <si>
+    <t>Req_UN_2.0</t>
+  </si>
+  <si>
+    <t>TC_UN_2.0</t>
+  </si>
+  <si>
+    <t>TC_UN_2.1</t>
+  </si>
+  <si>
+    <t>Req_UN_2.1</t>
+  </si>
+  <si>
+    <t>To validate whether error message is displayed when the user enters username consisting of less than 4 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Air</t>
+  </si>
+  <si>
+    <t>5.Inalid username must be entered</t>
+  </si>
+  <si>
+    <t>TC_UN_2.2</t>
+  </si>
+  <si>
+    <t>Req_UN_2.2</t>
+  </si>
+  <si>
+    <t>To validate whether error message is displayed when the user enters username consisting of more than 15 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Airline-execlan245</t>
+  </si>
+  <si>
+    <t>TC_UN_2.3</t>
+  </si>
+  <si>
+    <t>Req_UN_2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe4</t>
+  </si>
+  <si>
+    <t>To validate whether error message is displayed when the user leaves the username field empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>5.Username field has to be left empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                             Password-Testcases</t>
+  </si>
+  <si>
+    <t>TC_PW_3.0</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>To validate whether the user successfully logins by entering valid password</t>
+  </si>
+  <si>
+    <t>Req_PW_3.0</t>
+  </si>
+  <si>
+    <t>TC_PW_3.1</t>
+  </si>
+  <si>
+    <t>Req_PW_3.1</t>
+  </si>
+  <si>
+    <t>To validate whether error message is displayed when the user enters wrong password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skdjvn</t>
+  </si>
+  <si>
+    <t>6.Invalid password must be entered</t>
+  </si>
+  <si>
+    <t>Req_PW_3.2</t>
+  </si>
+  <si>
+    <t>To validate whether error message is displayed when the user leaves the password field empty.</t>
+  </si>
+  <si>
+    <t>6.Password field must be left empty</t>
+  </si>
+  <si>
+    <t>TC_PW_3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                      DETAILS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -501,7 +595,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -509,9 +603,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -523,12 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -540,7 +625,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -551,16 +636,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,23 +663,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,21 +681,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,6 +689,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -799,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,14 +1114,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1106,11 +1209,11 @@
     </row>
     <row r="4" spans="1:22" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1131,30 +1234,30 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="15.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1"/>
@@ -1181,84 +1284,84 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1"/>
@@ -1285,236 +1388,236 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" ht="25.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>43202</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>43203</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" ht="25.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1"/>
@@ -1602,11 +1705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1625,521 +1728,1232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="17.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
     </row>
     <row r="2" spans="1:29" ht="17.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
     </row>
     <row r="3" spans="1:29" ht="120" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="23"/>
-    </row>
-    <row r="4" spans="1:29" s="39" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="C4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="E4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="F4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="G4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="H4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="I4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="K4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29"/>
+    </row>
+    <row r="5" spans="1:29" s="23" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="47" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="49" customFormat="1">
+      <c r="A7" s="48"/>
+    </row>
+    <row r="8" spans="1:29" s="47" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="38"/>
-    </row>
-    <row r="5" spans="1:29" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="33" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="29" customFormat="1">
-      <c r="A7" s="28"/>
-    </row>
-    <row r="8" spans="1:29" s="33" customFormat="1">
-      <c r="A8" s="32" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="40" t="s">
+      <c r="G12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:29" ht="31.5" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" ht="30">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="G29" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="45"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="G34" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46" t="s">
+      <c r="G36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="45"/>
+    </row>
+    <row r="37" spans="1:11" ht="30">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="45"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="45"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="45"/>
+    </row>
+    <row r="44" spans="1:11" ht="30">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="45"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="45"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="45"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="45"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" s="45"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="45"/>
+    </row>
+    <row r="51" spans="1:11" ht="30">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="45"/>
+    </row>
+    <row r="52" spans="1:11" s="50" customFormat="1">
+      <c r="A52" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="45"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="45"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="45"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="47" t="s">
+      <c r="K57" s="45"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="45"/>
+    </row>
+    <row r="59" spans="1:11" ht="30">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="45"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="45"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46" t="s">
+      <c r="F64" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" s="45"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F65" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="1:11" ht="30">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="46" t="s">
+      <c r="K67" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" ht="30">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="46" t="s">
+      <c r="F73" s="34"/>
+      <c r="G73" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="41"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="41"/>
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="1:11" s="50" customFormat="1">
+      <c r="A74" s="50" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="K23:K29"/>
+  <mergeCells count="51">
+    <mergeCell ref="A74:XFD74"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="K67:K73"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="K60:K66"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="K53:K59"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="K45:K51"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
@@ -2148,11 +2962,12 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="K16:K22"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A7:XFD7"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="K24:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/airlinereservation.xlsx
+++ b/airlinereservation.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achowtap\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="6915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Profile" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="189">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -323,17 +328,281 @@
     <t>TC_PW_3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                      DETAILS</t>
+    <t xml:space="preserve">                                                                       Select Your Option-Testcases</t>
+  </si>
+  <si>
+    <t>TC_SP_4.0</t>
+  </si>
+  <si>
+    <t>Select your option</t>
+  </si>
+  <si>
+    <t>7.Select Your option</t>
+  </si>
+  <si>
+    <t>8.Click on submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                           Executive home page</t>
+  </si>
+  <si>
+    <t>Req_SP_4.0</t>
+  </si>
+  <si>
+    <t>Req_SP_4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe5</t>
+  </si>
+  <si>
+    <t>Req_SP_4.2</t>
+  </si>
+  <si>
+    <t>TC_SP_4.1</t>
+  </si>
+  <si>
+    <t>TC_SP_4.2</t>
+  </si>
+  <si>
+    <t>To validate whether the user is naviagted to the "Flights between dates" page after selecting the "Flights based on period" option</t>
+  </si>
+  <si>
+    <t>To validate whether the user is naviagted to the "Flights between Places" page after selecting the "Flights based on places" option</t>
+  </si>
+  <si>
+    <t>8.Flights based on period must be selected</t>
+  </si>
+  <si>
+    <t>8.Flights based on places must be selected</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays error when the user doesn't select any of the option.</t>
+  </si>
+  <si>
+    <t>8.None of the option must be selected</t>
+  </si>
+  <si>
+    <t>9.Onclicking submit button error message must be displayed</t>
+  </si>
+  <si>
+    <t>9.Onclicking submit button user must be navigated to the Flights based on places page</t>
+  </si>
+  <si>
+    <t>9.Onclicking submit button user must be navigated to the Flights based on dates page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                 Flights based on Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                   From Date - Testcases</t>
+  </si>
+  <si>
+    <t>TC_SP_5.0</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To validate whether user is navigated to Flights schedule based on period when user selects correct From date</t>
+  </si>
+  <si>
+    <t>9.Select From Date</t>
+  </si>
+  <si>
+    <t>10.Select To Date</t>
+  </si>
+  <si>
+    <t>11.Valid To date must be selected</t>
+  </si>
+  <si>
+    <t>10.Valid From date must be selected</t>
+  </si>
+  <si>
+    <t>TC_SP_5.1</t>
+  </si>
+  <si>
+    <t>Req_SP_4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe6</t>
+  </si>
+  <si>
+    <t>10.Invalid From date must be selected</t>
+  </si>
+  <si>
+    <t>11.Invalid To date must be selected</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays an error message when the user selects From Date greater than To Date</t>
+  </si>
+  <si>
+    <t>Req_SP_4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Airline-exec4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe7</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays an error message when the user leaves the From Date field</t>
+  </si>
+  <si>
+    <t>10.From date field has to left blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                       To Date - Testcases</t>
+  </si>
+  <si>
+    <t>TC_SP_5.2</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>To validate whether user is navigated to Flights schedule based on period when user selects correct To date</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays an error message when the user selects To Date Lesser than From Date</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays an error message when the user leaves the To Date field</t>
+  </si>
+  <si>
+    <t>11.To date must be left blank</t>
+  </si>
+  <si>
+    <t>TC_TD_6.2</t>
+  </si>
+  <si>
+    <t>TC_TD_6.1</t>
+  </si>
+  <si>
+    <t>TC_TD_6.0</t>
+  </si>
+  <si>
+    <t>BVA Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                         Flights based on Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                    Enter the Source - Testcases</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>To validate whether the user is navigated to Flights Schedule based on places page when the user selects the valid city name</t>
+  </si>
+  <si>
+    <t>9.Select Source</t>
+  </si>
+  <si>
+    <t>10.Select  Destination</t>
+  </si>
+  <si>
+    <t>10.Source city name must be selected</t>
+  </si>
+  <si>
+    <t>11.Destination city name must be selected</t>
+  </si>
+  <si>
+    <t>TC_ES_7.0</t>
+  </si>
+  <si>
+    <t>Req_ES_7.0</t>
+  </si>
+  <si>
+    <t>TC_ES_7.1</t>
+  </si>
+  <si>
+    <t>Req_ES_7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Airline-exec5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe8</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays error message when user leaves the Source field blank</t>
+  </si>
+  <si>
+    <t>10.Source city name must be left blank</t>
+  </si>
+  <si>
+    <t>12.Onclicking on 'Go' button the user must be navigated to Flights schedule page</t>
+  </si>
+  <si>
+    <t>12.Onclicking on 'Go' button the website must display an error message</t>
+  </si>
+  <si>
+    <t>TC_ES_7.2</t>
+  </si>
+  <si>
+    <t>Req_ES_7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Airline-exec6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skyexe9</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays error message when user selects both Source and Destination city same</t>
+  </si>
+  <si>
+    <t>10.Select the source city</t>
+  </si>
+  <si>
+    <t>11.Select the destination city same as source city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                     Enter the destination - Testcases</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>To validate whether the user is navigated to Flights Schedule based on places page when the user selects the valid city names</t>
+  </si>
+  <si>
+    <t>To validate whether the website displays error message when user leaves the destination field blank</t>
+  </si>
+  <si>
+    <t>10.Select the Source city</t>
+  </si>
+  <si>
+    <t>11.Destination city name must be left blank</t>
+  </si>
+  <si>
+    <t>TC_ED_8.0</t>
+  </si>
+  <si>
+    <t>TC_ED_8.1</t>
+  </si>
+  <si>
+    <t>TC_ED_8.2</t>
+  </si>
+  <si>
+    <t>Req_ED_8.0</t>
+  </si>
+  <si>
+    <t>Req_ED_8.1</t>
+  </si>
+  <si>
+    <t>Req_ED_8.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +684,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -448,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -587,6 +863,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,7 +924,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -690,6 +1019,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +1055,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,6 +1109,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -733,13 +1125,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,14 +1525,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1209,11 +1620,11 @@
     </row>
     <row r="4" spans="1:22" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1288,10 +1699,10 @@
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1316,10 +1727,10 @@
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1569,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="52" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="5"/>
@@ -1599,7 +2010,7 @@
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1705,11 +2116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="G211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211:K246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1887,30 +2298,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="47" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:29" s="74" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="49" customFormat="1">
-      <c r="A7" s="48"/>
-    </row>
-    <row r="8" spans="1:29" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="7" spans="1:29" s="76" customFormat="1">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:29" s="74" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="73" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -1920,15 +2331,15 @@
       <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="32" t="s">
         <v>45</v>
       </c>
@@ -1936,13 +2347,13 @@
       <c r="G10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="33" t="s">
         <v>35</v>
       </c>
@@ -1950,13 +2361,13 @@
       <c r="G11" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="32" t="s">
         <v>36</v>
       </c>
@@ -1966,13 +2377,13 @@
       <c r="G12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="45"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="32" t="s">
         <v>37</v>
       </c>
@@ -1982,13 +2393,13 @@
       <c r="G13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="45"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="32" t="s">
         <v>38</v>
       </c>
@@ -1996,13 +2407,13 @@
       <c r="G14" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="34" t="s">
         <v>39</v>
       </c>
@@ -2010,19 +2421,19 @@
       <c r="G15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="45"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="69" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -2032,15 +2443,15 @@
       <c r="G16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="67" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="32" t="s">
         <v>45</v>
       </c>
@@ -2048,13 +2459,13 @@
       <c r="G17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="33" t="s">
         <v>35</v>
       </c>
@@ -2062,26 +2473,26 @@
       <c r="G18" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="45"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="45"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="32" t="s">
         <v>37</v>
       </c>
@@ -2091,13 +2502,13 @@
       <c r="G20" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="32" t="s">
         <v>38</v>
       </c>
@@ -2107,13 +2518,13 @@
       <c r="G21" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="45"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="34" t="s">
         <v>39</v>
       </c>
@@ -2121,24 +2532,24 @@
       <c r="G22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" s="77" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="77" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="69" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -2148,15 +2559,15 @@
       <c r="G24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="32" t="s">
         <v>45</v>
       </c>
@@ -2164,13 +2575,13 @@
       <c r="G25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="33" t="s">
         <v>35</v>
       </c>
@@ -2178,26 +2589,26 @@
       <c r="G26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="45"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="45"/>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="32" t="s">
         <v>37</v>
       </c>
@@ -2207,13 +2618,13 @@
       <c r="G28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="45"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="32" t="s">
         <v>38</v>
       </c>
@@ -2223,33 +2634,33 @@
       <c r="G29" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="45"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="52" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="45"/>
+      <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="69" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -2259,15 +2670,15 @@
       <c r="G31" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="32" t="s">
         <v>45</v>
       </c>
@@ -2275,13 +2686,13 @@
       <c r="G32" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="45"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="33" t="s">
         <v>35</v>
       </c>
@@ -2289,26 +2700,26 @@
       <c r="G33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="32" t="s">
         <v>37</v>
       </c>
@@ -2318,13 +2729,13 @@
       <c r="G35" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="32" t="s">
         <v>38</v>
       </c>
@@ -2334,33 +2745,33 @@
       <c r="G36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="45"/>
+      <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="52" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="69" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="31" t="s">
@@ -2370,15 +2781,15 @@
       <c r="G38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="32" t="s">
         <v>45</v>
       </c>
@@ -2386,13 +2797,13 @@
       <c r="G39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="45"/>
+      <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="33" t="s">
         <v>35</v>
       </c>
@@ -2400,26 +2811,26 @@
       <c r="G40" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="45"/>
+      <c r="K41" s="71"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="32" t="s">
         <v>37</v>
       </c>
@@ -2429,13 +2840,13 @@
       <c r="G42" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="45"/>
+      <c r="K42" s="71"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="32" t="s">
         <v>38</v>
       </c>
@@ -2445,33 +2856,33 @@
       <c r="G43" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="45"/>
+      <c r="K43" s="71"/>
     </row>
     <row r="44" spans="1:11" ht="30">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="52" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="45"/>
+      <c r="K44" s="71"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="69" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="31" t="s">
@@ -2481,15 +2892,15 @@
       <c r="G45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="67" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="32" t="s">
         <v>45</v>
       </c>
@@ -2497,13 +2908,13 @@
       <c r="G46" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="45"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="33" t="s">
         <v>35</v>
       </c>
@@ -2511,26 +2922,26 @@
       <c r="G47" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K47" s="45"/>
+      <c r="K47" s="71"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="45"/>
+      <c r="K48" s="71"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="32" t="s">
         <v>37</v>
       </c>
@@ -2540,13 +2951,13 @@
       <c r="G49" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="K49" s="45"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="32" t="s">
         <v>38</v>
       </c>
@@ -2556,38 +2967,38 @@
       <c r="G50" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="45"/>
+      <c r="K50" s="71"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="52" t="s">
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="45"/>
-    </row>
-    <row r="52" spans="1:11" s="50" customFormat="1">
-      <c r="A52" s="50" t="s">
+      <c r="K51" s="71"/>
+    </row>
+    <row r="52" spans="1:11" s="72" customFormat="1">
+      <c r="A52" s="72" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="69" t="s">
         <v>89</v>
       </c>
       <c r="E53" s="31" t="s">
@@ -2597,15 +3008,18 @@
       <c r="G53" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="41" t="s">
+      <c r="J53" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" s="67" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="32" t="s">
         <v>45</v>
       </c>
@@ -2613,13 +3027,14 @@
       <c r="G54" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="45"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="33" t="s">
         <v>35</v>
       </c>
@@ -2627,26 +3042,28 @@
       <c r="G55" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="45"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="45"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="32" t="s">
         <v>37</v>
       </c>
@@ -2656,13 +3073,14 @@
       <c r="G57" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="45"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="32" t="s">
         <v>38</v>
       </c>
@@ -2672,33 +3090,35 @@
       <c r="G58" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="45"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
     </row>
     <row r="59" spans="1:11" ht="30">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="52" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K59" s="45"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="69" t="s">
         <v>93</v>
       </c>
       <c r="E60" s="31" t="s">
@@ -2708,15 +3128,18 @@
       <c r="G60" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="J60" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="32" t="s">
         <v>45</v>
       </c>
@@ -2724,13 +3147,14 @@
       <c r="G61" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K61" s="45"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="33" t="s">
         <v>35</v>
       </c>
@@ -2738,26 +3162,28 @@
       <c r="G62" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K62" s="45"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K63" s="45"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="32" t="s">
         <v>37</v>
       </c>
@@ -2767,13 +3193,14 @@
       <c r="G64" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K64" s="45"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="32" t="s">
         <v>38</v>
       </c>
@@ -2783,33 +3210,35 @@
       <c r="G65" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K65" s="45"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="1:11" ht="30">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="52" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="45"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="69" t="s">
         <v>97</v>
       </c>
       <c r="E67" s="31" t="s">
@@ -2819,15 +3248,18 @@
       <c r="G67" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="41" t="s">
+      <c r="J67" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="K67" s="67" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="32" t="s">
         <v>45</v>
       </c>
@@ -2835,13 +3267,14 @@
       <c r="G68" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="45"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="33" t="s">
         <v>35</v>
       </c>
@@ -2849,26 +3282,28 @@
       <c r="G69" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K69" s="45"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K70" s="45"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="32" t="s">
         <v>37</v>
       </c>
@@ -2878,13 +3313,14 @@
       <c r="G71" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K71" s="45"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="32" t="s">
         <v>38</v>
       </c>
@@ -2894,61 +3330,3155 @@
       <c r="G72" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K72" s="45"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
     </row>
     <row r="73" spans="1:11" ht="30">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="52" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="K73" s="45"/>
-    </row>
-    <row r="74" spans="1:11" s="50" customFormat="1">
-      <c r="A74" s="50" t="s">
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+    </row>
+    <row r="74" spans="1:11" s="66" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A74" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="78" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A75" s="78" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1">
+      <c r="A76" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="55"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="41"/>
+      <c r="G77" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="58"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="55"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="41"/>
+      <c r="G78" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="58"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="55"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="41"/>
+      <c r="G79" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="58"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="55"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="58"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="55"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="58"/>
+    </row>
+    <row r="82" spans="1:11" ht="30">
+      <c r="A82" s="55"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="41"/>
+      <c r="G82" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="58"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="55"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="41"/>
+      <c r="G83" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="58"/>
+    </row>
+    <row r="84" spans="1:11" ht="30">
+      <c r="A84" s="56"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="44"/>
+      <c r="G84" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="59"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="55"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="41"/>
+      <c r="G86" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="58"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="55"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="41"/>
+      <c r="G87" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="58"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="55"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="41"/>
+      <c r="G88" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="58"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="55"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="58"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="55"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="58"/>
+    </row>
+    <row r="91" spans="1:11" ht="30">
+      <c r="A91" s="55"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="41"/>
+      <c r="G91" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="58"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="55"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F92" s="41"/>
+      <c r="G92" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="58"/>
+    </row>
+    <row r="93" spans="1:11" ht="30">
+      <c r="A93" s="56"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="59"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="55"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="41"/>
+      <c r="G95" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="58"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="41"/>
+      <c r="G96" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="58"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="55"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="41"/>
+      <c r="G97" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="58"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="55"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="58"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="55"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="58"/>
+    </row>
+    <row r="100" spans="1:11" ht="30">
+      <c r="A100" s="55"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="41"/>
+      <c r="G100" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="58"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="55"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="41"/>
+      <c r="G101" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="58"/>
+    </row>
+    <row r="102" spans="1:11" ht="30">
+      <c r="A102" s="56"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F102" s="44"/>
+      <c r="G102" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="59"/>
+    </row>
+    <row r="103" spans="1:11" s="77" customFormat="1" ht="36" customHeight="1">
+      <c r="A103" s="77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="77" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A104" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1">
+      <c r="A105" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="79"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="81"/>
+      <c r="G107" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H107" s="81"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="81"/>
+      <c r="K107" s="79"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="79"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G109" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="79"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="81"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="81"/>
+      <c r="K110" s="79"/>
+    </row>
+    <row r="111" spans="1:11" ht="30">
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="81"/>
+      <c r="G111" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" s="81"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="79"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F112" s="81"/>
+      <c r="G112" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="79"/>
+    </row>
+    <row r="113" spans="1:11" ht="30">
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" s="81"/>
+      <c r="G113" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H113" s="81"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="81"/>
+      <c r="K113" s="79"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="79"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="81"/>
+      <c r="G114" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H114" s="81"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="81"/>
+      <c r="K114" s="79"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="79"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H115" s="81"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81"/>
+      <c r="K115" s="79"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="79"/>
+      <c r="B117" s="79"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" s="81"/>
+      <c r="G117" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81"/>
+      <c r="K117" s="79"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="79"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="79"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="79"/>
+      <c r="B119" s="79"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="81"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="79"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G120" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="81"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="81"/>
+      <c r="K120" s="79"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="79"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G121" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" s="81"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="81"/>
+      <c r="K121" s="79"/>
+    </row>
+    <row r="122" spans="1:11" ht="30">
+      <c r="A122" s="79"/>
+      <c r="B122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="81"/>
+      <c r="G122" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="79"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="79"/>
+      <c r="B123" s="79"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="81"/>
+      <c r="G123" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H123" s="81"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
+      <c r="K123" s="79"/>
+    </row>
+    <row r="124" spans="1:11" ht="30">
+      <c r="A124" s="79"/>
+      <c r="B124" s="79"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124" s="81"/>
+      <c r="G124" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H124" s="81"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="81"/>
+      <c r="K124" s="79"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="79"/>
+      <c r="B125" s="79"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="81"/>
+      <c r="G125" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H125" s="81"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="81"/>
+      <c r="K125" s="79"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="79"/>
+      <c r="B126" s="79"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="81"/>
+      <c r="K126" s="79"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H127" s="81"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="81"/>
+      <c r="K127" s="79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="79"/>
+      <c r="B128" s="79"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" s="81"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="81"/>
+      <c r="K128" s="79"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="79"/>
+      <c r="B129" s="79"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="81"/>
+      <c r="G129" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H129" s="81"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="79"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="79"/>
+      <c r="B130" s="79"/>
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="81"/>
+      <c r="G130" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H130" s="81"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81"/>
+      <c r="K130" s="79"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="79"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131" s="81"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="81"/>
+      <c r="K131" s="79"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="79"/>
+      <c r="B132" s="79"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H132" s="81"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81"/>
+      <c r="K132" s="79"/>
+    </row>
+    <row r="133" spans="1:11" ht="30">
+      <c r="A133" s="79"/>
+      <c r="B133" s="79"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="81"/>
+      <c r="G133" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="81"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="79"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="79"/>
+      <c r="B134" s="79"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F134" s="81"/>
+      <c r="G134" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H134" s="81"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="81"/>
+      <c r="K134" s="79"/>
+    </row>
+    <row r="135" spans="1:11" ht="30">
+      <c r="A135" s="79"/>
+      <c r="B135" s="79"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135" s="81"/>
+      <c r="G135" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="79"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="79"/>
+      <c r="B136" s="79"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F136" s="81"/>
+      <c r="G136" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="81"/>
+      <c r="K136" s="79"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="79"/>
+      <c r="B137" s="79"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="81"/>
+      <c r="G137" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137" s="81"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="81"/>
+      <c r="K137" s="79"/>
+    </row>
+    <row r="138" spans="1:11" s="77" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A138" s="77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E139" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="81"/>
+      <c r="G139" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="81"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="81"/>
+      <c r="K139" s="79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="79"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="79"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="79"/>
+      <c r="B141" s="79"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="81"/>
+      <c r="G141" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" s="81"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="79"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="79"/>
+      <c r="B142" s="79"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="81"/>
+      <c r="G142" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" s="81"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="79"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="79"/>
+      <c r="B143" s="79"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F143" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G143" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="79"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="79"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="G144" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="79"/>
+    </row>
+    <row r="145" spans="1:11" ht="30">
+      <c r="A145" s="79"/>
+      <c r="B145" s="79"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" s="81"/>
+      <c r="G145" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="79"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="79"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F146" s="81"/>
+      <c r="G146" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+      <c r="K146" s="79"/>
+    </row>
+    <row r="147" spans="1:11" ht="30">
+      <c r="A147" s="79"/>
+      <c r="B147" s="79"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="80"/>
+      <c r="E147" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F147" s="81"/>
+      <c r="G147" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81"/>
+      <c r="K147" s="79"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="79"/>
+      <c r="B148" s="79"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="80"/>
+      <c r="E148" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F148" s="81"/>
+      <c r="G148" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81"/>
+      <c r="K148" s="79"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="79"/>
+      <c r="B149" s="79"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F149" s="81"/>
+      <c r="G149" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H149" s="81"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="81"/>
+      <c r="K149" s="79"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" s="81"/>
+      <c r="G150" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="81"/>
+      <c r="K150" s="79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="79"/>
+      <c r="B151" s="79"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" s="81"/>
+      <c r="G151" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81"/>
+      <c r="K151" s="79"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="79"/>
+      <c r="B152" s="79"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152" s="81"/>
+      <c r="G152" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H152" s="81"/>
+      <c r="I152" s="81"/>
+      <c r="J152" s="81"/>
+      <c r="K152" s="79"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="79"/>
+      <c r="B153" s="79"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="81"/>
+      <c r="G153" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" s="81"/>
+      <c r="I153" s="81"/>
+      <c r="J153" s="81"/>
+      <c r="K153" s="79"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="79"/>
+      <c r="B154" s="79"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F154" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H154" s="81"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="81"/>
+      <c r="K154" s="79"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="79"/>
+      <c r="B155" s="79"/>
+      <c r="C155" s="80"/>
+      <c r="D155" s="80"/>
+      <c r="E155" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G155" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H155" s="81"/>
+      <c r="I155" s="81"/>
+      <c r="J155" s="81"/>
+      <c r="K155" s="79"/>
+    </row>
+    <row r="156" spans="1:11" ht="30">
+      <c r="A156" s="79"/>
+      <c r="B156" s="79"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" s="81"/>
+      <c r="G156" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H156" s="81"/>
+      <c r="I156" s="81"/>
+      <c r="J156" s="81"/>
+      <c r="K156" s="79"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="79"/>
+      <c r="B157" s="79"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F157" s="81"/>
+      <c r="G157" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H157" s="81"/>
+      <c r="I157" s="81"/>
+      <c r="J157" s="81"/>
+      <c r="K157" s="79"/>
+    </row>
+    <row r="158" spans="1:11" ht="30">
+      <c r="A158" s="79"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="80"/>
+      <c r="E158" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F158" s="81"/>
+      <c r="G158" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H158" s="81"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="81"/>
+      <c r="K158" s="79"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="79"/>
+      <c r="B159" s="79"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F159" s="81"/>
+      <c r="G159" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H159" s="81"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="81"/>
+      <c r="K159" s="79"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="79"/>
+      <c r="B160" s="79"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="80"/>
+      <c r="E160" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F160" s="81"/>
+      <c r="G160" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H160" s="81"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="81"/>
+      <c r="K160" s="79"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E161" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="81"/>
+      <c r="G161" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H161" s="81"/>
+      <c r="I161" s="81"/>
+      <c r="J161" s="81"/>
+      <c r="K161" s="79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="79"/>
+      <c r="B162" s="79"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" s="81"/>
+      <c r="G162" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H162" s="81"/>
+      <c r="I162" s="81"/>
+      <c r="J162" s="81"/>
+      <c r="K162" s="79"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="79"/>
+      <c r="B163" s="79"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" s="81"/>
+      <c r="G163" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H163" s="81"/>
+      <c r="I163" s="81"/>
+      <c r="J163" s="81"/>
+      <c r="K163" s="79"/>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="79"/>
+      <c r="B164" s="79"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="80"/>
+      <c r="E164" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F164" s="81"/>
+      <c r="G164" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H164" s="81"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="81"/>
+      <c r="K164" s="79"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="79"/>
+      <c r="B165" s="79"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="80"/>
+      <c r="E165" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F165" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G165" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H165" s="81"/>
+      <c r="I165" s="81"/>
+      <c r="J165" s="81"/>
+      <c r="K165" s="79"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="79"/>
+      <c r="B166" s="79"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="80"/>
+      <c r="E166" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G166" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H166" s="81"/>
+      <c r="I166" s="81"/>
+      <c r="J166" s="81"/>
+      <c r="K166" s="79"/>
+    </row>
+    <row r="167" spans="1:11" ht="30">
+      <c r="A167" s="79"/>
+      <c r="B167" s="79"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="80"/>
+      <c r="E167" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" s="81"/>
+      <c r="G167" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H167" s="81"/>
+      <c r="I167" s="81"/>
+      <c r="J167" s="81"/>
+      <c r="K167" s="79"/>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="79"/>
+      <c r="B168" s="79"/>
+      <c r="C168" s="80"/>
+      <c r="D168" s="80"/>
+      <c r="E168" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F168" s="81"/>
+      <c r="G168" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H168" s="81"/>
+      <c r="I168" s="81"/>
+      <c r="J168" s="81"/>
+      <c r="K168" s="79"/>
+    </row>
+    <row r="169" spans="1:11" ht="30">
+      <c r="A169" s="79"/>
+      <c r="B169" s="79"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F169" s="81"/>
+      <c r="G169" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H169" s="81"/>
+      <c r="I169" s="81"/>
+      <c r="J169" s="81"/>
+      <c r="K169" s="79"/>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="79"/>
+      <c r="B170" s="79"/>
+      <c r="C170" s="80"/>
+      <c r="D170" s="80"/>
+      <c r="E170" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F170" s="81"/>
+      <c r="G170" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H170" s="81"/>
+      <c r="I170" s="81"/>
+      <c r="J170" s="81"/>
+      <c r="K170" s="79"/>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="79"/>
+      <c r="B171" s="79"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="80"/>
+      <c r="E171" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" s="81"/>
+      <c r="G171" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H171" s="81"/>
+      <c r="I171" s="81"/>
+      <c r="J171" s="81"/>
+      <c r="K171" s="79"/>
+    </row>
+    <row r="172" spans="1:11" s="77" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A172" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="77" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A173" s="77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15" customHeight="1">
+      <c r="A174" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B174" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E174" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="81"/>
+      <c r="G174" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H174" s="81"/>
+      <c r="I174" s="81"/>
+      <c r="J174" s="81"/>
+      <c r="K174" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="79"/>
+      <c r="B175" s="79"/>
+      <c r="C175" s="80"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F175" s="81"/>
+      <c r="G175" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H175" s="81"/>
+      <c r="I175" s="81"/>
+      <c r="J175" s="81"/>
+      <c r="K175" s="79"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="79"/>
+      <c r="B176" s="79"/>
+      <c r="C176" s="80"/>
+      <c r="D176" s="80"/>
+      <c r="E176" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" s="81"/>
+      <c r="G176" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176" s="81"/>
+      <c r="I176" s="81"/>
+      <c r="J176" s="81"/>
+      <c r="K176" s="79"/>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="79"/>
+      <c r="B177" s="79"/>
+      <c r="C177" s="80"/>
+      <c r="D177" s="80"/>
+      <c r="E177" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" s="81"/>
+      <c r="G177" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H177" s="81"/>
+      <c r="I177" s="81"/>
+      <c r="J177" s="81"/>
+      <c r="K177" s="79"/>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="79"/>
+      <c r="B178" s="79"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="80"/>
+      <c r="E178" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G178" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H178" s="81"/>
+      <c r="I178" s="81"/>
+      <c r="J178" s="81"/>
+      <c r="K178" s="79"/>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="79"/>
+      <c r="B179" s="79"/>
+      <c r="C179" s="80"/>
+      <c r="D179" s="80"/>
+      <c r="E179" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G179" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H179" s="81"/>
+      <c r="I179" s="81"/>
+      <c r="J179" s="81"/>
+      <c r="K179" s="79"/>
+    </row>
+    <row r="180" spans="1:11" ht="30">
+      <c r="A180" s="79"/>
+      <c r="B180" s="79"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+      <c r="E180" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="81"/>
+      <c r="G180" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
+      <c r="K180" s="79"/>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="79"/>
+      <c r="B181" s="79"/>
+      <c r="C181" s="80"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F181" s="81"/>
+      <c r="G181" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H181" s="81"/>
+      <c r="I181" s="81"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="79"/>
+    </row>
+    <row r="182" spans="1:11" ht="30">
+      <c r="A182" s="79"/>
+      <c r="B182" s="79"/>
+      <c r="C182" s="80"/>
+      <c r="D182" s="80"/>
+      <c r="E182" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F182" s="81"/>
+      <c r="G182" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H182" s="81"/>
+      <c r="I182" s="81"/>
+      <c r="J182" s="81"/>
+      <c r="K182" s="79"/>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="79"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F183" s="81"/>
+      <c r="G183" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="H183" s="81"/>
+      <c r="I183" s="81"/>
+      <c r="J183" s="81"/>
+      <c r="K183" s="79"/>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="79"/>
+      <c r="B184" s="79"/>
+      <c r="C184" s="80"/>
+      <c r="D184" s="80"/>
+      <c r="E184" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F184" s="81"/>
+      <c r="G184" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H184" s="81"/>
+      <c r="I184" s="81"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="79"/>
+    </row>
+    <row r="185" spans="1:11" ht="30">
+      <c r="A185" s="79"/>
+      <c r="B185" s="79"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="81"/>
+      <c r="G185" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="H185" s="81"/>
+      <c r="I185" s="81"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="79"/>
+    </row>
+    <row r="186" spans="1:11" ht="15" customHeight="1">
+      <c r="A186" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="81"/>
+      <c r="G186" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" s="81"/>
+      <c r="I186" s="81"/>
+      <c r="J186" s="81"/>
+      <c r="K186" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="79"/>
+      <c r="B187" s="79"/>
+      <c r="C187" s="80"/>
+      <c r="D187" s="80"/>
+      <c r="E187" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F187" s="81"/>
+      <c r="G187" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H187" s="81"/>
+      <c r="I187" s="81"/>
+      <c r="J187" s="81"/>
+      <c r="K187" s="79"/>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="79"/>
+      <c r="B188" s="79"/>
+      <c r="C188" s="80"/>
+      <c r="D188" s="80"/>
+      <c r="E188" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" s="81"/>
+      <c r="G188" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" s="81"/>
+      <c r="I188" s="81"/>
+      <c r="J188" s="81"/>
+      <c r="K188" s="79"/>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="79"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" s="81"/>
+      <c r="G189" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H189" s="81"/>
+      <c r="I189" s="81"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="79"/>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="79"/>
+      <c r="B190" s="79"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="80"/>
+      <c r="E190" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="G190" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="79"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="79"/>
+      <c r="B191" s="79"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="80"/>
+      <c r="E191" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G191" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H191" s="81"/>
+      <c r="I191" s="81"/>
+      <c r="J191" s="81"/>
+      <c r="K191" s="79"/>
+    </row>
+    <row r="192" spans="1:11" ht="30">
+      <c r="A192" s="79"/>
+      <c r="B192" s="79"/>
+      <c r="C192" s="80"/>
+      <c r="D192" s="80"/>
+      <c r="E192" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="81"/>
+      <c r="G192" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H192" s="81"/>
+      <c r="I192" s="81"/>
+      <c r="J192" s="81"/>
+      <c r="K192" s="79"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="79"/>
+      <c r="B193" s="79"/>
+      <c r="C193" s="80"/>
+      <c r="D193" s="80"/>
+      <c r="E193" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F193" s="81"/>
+      <c r="G193" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H193" s="81"/>
+      <c r="I193" s="81"/>
+      <c r="J193" s="81"/>
+      <c r="K193" s="79"/>
+    </row>
+    <row r="194" spans="1:11" ht="30">
+      <c r="A194" s="79"/>
+      <c r="B194" s="79"/>
+      <c r="C194" s="80"/>
+      <c r="D194" s="80"/>
+      <c r="E194" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F194" s="81"/>
+      <c r="G194" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H194" s="81"/>
+      <c r="I194" s="81"/>
+      <c r="J194" s="81"/>
+      <c r="K194" s="79"/>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="79"/>
+      <c r="B195" s="79"/>
+      <c r="C195" s="80"/>
+      <c r="D195" s="80"/>
+      <c r="E195" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F195" s="81"/>
+      <c r="G195" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="H195" s="81"/>
+      <c r="I195" s="81"/>
+      <c r="J195" s="81"/>
+      <c r="K195" s="79"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="79"/>
+      <c r="B196" s="79"/>
+      <c r="C196" s="80"/>
+      <c r="D196" s="80"/>
+      <c r="E196" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F196" s="81"/>
+      <c r="G196" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H196" s="81"/>
+      <c r="I196" s="81"/>
+      <c r="J196" s="81"/>
+      <c r="K196" s="79"/>
+    </row>
+    <row r="197" spans="1:11" ht="30">
+      <c r="A197" s="79"/>
+      <c r="B197" s="79"/>
+      <c r="C197" s="80"/>
+      <c r="D197" s="80"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="81"/>
+      <c r="G197" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="H197" s="81"/>
+      <c r="I197" s="81"/>
+      <c r="J197" s="81"/>
+      <c r="K197" s="79"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C198" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E198" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" s="81"/>
+      <c r="G198" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
+      <c r="K198" s="79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="79"/>
+      <c r="B199" s="79"/>
+      <c r="C199" s="80"/>
+      <c r="D199" s="80"/>
+      <c r="E199" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F199" s="81"/>
+      <c r="G199" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199" s="81"/>
+      <c r="I199" s="81"/>
+      <c r="J199" s="81"/>
+      <c r="K199" s="79"/>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="79"/>
+      <c r="B200" s="79"/>
+      <c r="C200" s="80"/>
+      <c r="D200" s="80"/>
+      <c r="E200" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" s="81"/>
+      <c r="G200" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
+      <c r="K200" s="79"/>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="79"/>
+      <c r="B201" s="79"/>
+      <c r="C201" s="80"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="81"/>
+      <c r="G201" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H201" s="81"/>
+      <c r="I201" s="81"/>
+      <c r="J201" s="81"/>
+      <c r="K201" s="79"/>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="79"/>
+      <c r="B202" s="79"/>
+      <c r="C202" s="80"/>
+      <c r="D202" s="80"/>
+      <c r="E202" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F202" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="G202" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H202" s="81"/>
+      <c r="I202" s="81"/>
+      <c r="J202" s="81"/>
+      <c r="K202" s="79"/>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="79"/>
+      <c r="B203" s="79"/>
+      <c r="C203" s="80"/>
+      <c r="D203" s="80"/>
+      <c r="E203" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G203" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H203" s="81"/>
+      <c r="I203" s="81"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="79"/>
+    </row>
+    <row r="204" spans="1:11" ht="30">
+      <c r="A204" s="79"/>
+      <c r="B204" s="79"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="80"/>
+      <c r="E204" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" s="81"/>
+      <c r="G204" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H204" s="81"/>
+      <c r="I204" s="81"/>
+      <c r="J204" s="81"/>
+      <c r="K204" s="79"/>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="79"/>
+      <c r="B205" s="79"/>
+      <c r="C205" s="80"/>
+      <c r="D205" s="80"/>
+      <c r="E205" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F205" s="81"/>
+      <c r="G205" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H205" s="81"/>
+      <c r="I205" s="81"/>
+      <c r="J205" s="81"/>
+      <c r="K205" s="79"/>
+    </row>
+    <row r="206" spans="1:11" ht="30">
+      <c r="A206" s="79"/>
+      <c r="B206" s="79"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="80"/>
+      <c r="E206" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F206" s="81"/>
+      <c r="G206" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H206" s="81"/>
+      <c r="I206" s="81"/>
+      <c r="J206" s="81"/>
+      <c r="K206" s="79"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="79"/>
+      <c r="B207" s="79"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="80"/>
+      <c r="E207" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F207" s="81"/>
+      <c r="G207" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H207" s="81"/>
+      <c r="I207" s="81"/>
+      <c r="J207" s="81"/>
+      <c r="K207" s="79"/>
+    </row>
+    <row r="208" spans="1:11" ht="30">
+      <c r="A208" s="79"/>
+      <c r="B208" s="79"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F208" s="81"/>
+      <c r="G208" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="79"/>
+    </row>
+    <row r="209" spans="1:11" ht="30">
+      <c r="A209" s="79"/>
+      <c r="B209" s="79"/>
+      <c r="C209" s="80"/>
+      <c r="D209" s="80"/>
+      <c r="E209" s="81"/>
+      <c r="F209" s="81"/>
+      <c r="G209" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="H209" s="81"/>
+      <c r="I209" s="81"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="79"/>
+    </row>
+    <row r="210" spans="1:11" s="77" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A210" s="77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B211" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C211" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E211" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F211" s="81"/>
+      <c r="G211" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H211" s="81"/>
+      <c r="I211" s="81"/>
+      <c r="J211" s="81"/>
+      <c r="K211" s="79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="79"/>
+      <c r="B212" s="79"/>
+      <c r="C212" s="80"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" s="81"/>
+      <c r="G212" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H212" s="81"/>
+      <c r="I212" s="81"/>
+      <c r="J212" s="81"/>
+      <c r="K212" s="79"/>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="79"/>
+      <c r="B213" s="79"/>
+      <c r="C213" s="80"/>
+      <c r="D213" s="80"/>
+      <c r="E213" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213" s="81"/>
+      <c r="G213" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H213" s="81"/>
+      <c r="I213" s="81"/>
+      <c r="J213" s="81"/>
+      <c r="K213" s="79"/>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="79"/>
+      <c r="B214" s="79"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214" s="81"/>
+      <c r="G214" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H214" s="81"/>
+      <c r="I214" s="81"/>
+      <c r="J214" s="81"/>
+      <c r="K214" s="79"/>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="79"/>
+      <c r="B215" s="79"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F215" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G215" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H215" s="81"/>
+      <c r="I215" s="81"/>
+      <c r="J215" s="81"/>
+      <c r="K215" s="79"/>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="79"/>
+      <c r="B216" s="79"/>
+      <c r="C216" s="80"/>
+      <c r="D216" s="80"/>
+      <c r="E216" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G216" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H216" s="81"/>
+      <c r="I216" s="81"/>
+      <c r="J216" s="81"/>
+      <c r="K216" s="79"/>
+    </row>
+    <row r="217" spans="1:11" ht="30">
+      <c r="A217" s="79"/>
+      <c r="B217" s="79"/>
+      <c r="C217" s="80"/>
+      <c r="D217" s="80"/>
+      <c r="E217" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F217" s="81"/>
+      <c r="G217" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H217" s="81"/>
+      <c r="I217" s="81"/>
+      <c r="J217" s="81"/>
+      <c r="K217" s="79"/>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="79"/>
+      <c r="B218" s="79"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="80"/>
+      <c r="E218" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F218" s="81"/>
+      <c r="G218" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H218" s="81"/>
+      <c r="I218" s="81"/>
+      <c r="J218" s="81"/>
+      <c r="K218" s="79"/>
+    </row>
+    <row r="219" spans="1:11" ht="30">
+      <c r="A219" s="79"/>
+      <c r="B219" s="79"/>
+      <c r="C219" s="80"/>
+      <c r="D219" s="80"/>
+      <c r="E219" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F219" s="81"/>
+      <c r="G219" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H219" s="81"/>
+      <c r="I219" s="81"/>
+      <c r="J219" s="81"/>
+      <c r="K219" s="79"/>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="79"/>
+      <c r="B220" s="79"/>
+      <c r="C220" s="80"/>
+      <c r="D220" s="80"/>
+      <c r="E220" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F220" s="81"/>
+      <c r="G220" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="H220" s="81"/>
+      <c r="I220" s="81"/>
+      <c r="J220" s="81"/>
+      <c r="K220" s="79"/>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="79"/>
+      <c r="B221" s="79"/>
+      <c r="C221" s="80"/>
+      <c r="D221" s="80"/>
+      <c r="E221" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F221" s="81"/>
+      <c r="G221" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H221" s="81"/>
+      <c r="I221" s="81"/>
+      <c r="J221" s="81"/>
+      <c r="K221" s="79"/>
+    </row>
+    <row r="222" spans="1:11" ht="30">
+      <c r="A222" s="79"/>
+      <c r="B222" s="79"/>
+      <c r="C222" s="80"/>
+      <c r="D222" s="80"/>
+      <c r="E222" s="86"/>
+      <c r="F222" s="81"/>
+      <c r="G222" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="H222" s="81"/>
+      <c r="I222" s="81"/>
+      <c r="J222" s="81"/>
+      <c r="K222" s="79"/>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B223" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C223" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E223" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="81"/>
+      <c r="G223" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H223" s="81"/>
+      <c r="I223" s="81"/>
+      <c r="J223" s="81"/>
+      <c r="K223" s="79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="79"/>
+      <c r="B224" s="79"/>
+      <c r="C224" s="80"/>
+      <c r="D224" s="80"/>
+      <c r="E224" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F224" s="81"/>
+      <c r="G224" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H224" s="81"/>
+      <c r="I224" s="81"/>
+      <c r="J224" s="81"/>
+      <c r="K224" s="79"/>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="79"/>
+      <c r="B225" s="79"/>
+      <c r="C225" s="80"/>
+      <c r="D225" s="80"/>
+      <c r="E225" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F225" s="81"/>
+      <c r="G225" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H225" s="81"/>
+      <c r="I225" s="81"/>
+      <c r="J225" s="81"/>
+      <c r="K225" s="79"/>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="79"/>
+      <c r="B226" s="79"/>
+      <c r="C226" s="80"/>
+      <c r="D226" s="80"/>
+      <c r="E226" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F226" s="81"/>
+      <c r="G226" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H226" s="81"/>
+      <c r="I226" s="81"/>
+      <c r="J226" s="81"/>
+      <c r="K226" s="79"/>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="79"/>
+      <c r="B227" s="79"/>
+      <c r="C227" s="80"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F227" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="G227" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H227" s="81"/>
+      <c r="I227" s="81"/>
+      <c r="J227" s="81"/>
+      <c r="K227" s="79"/>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="79"/>
+      <c r="B228" s="79"/>
+      <c r="C228" s="80"/>
+      <c r="D228" s="80"/>
+      <c r="E228" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G228" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H228" s="81"/>
+      <c r="I228" s="81"/>
+      <c r="J228" s="81"/>
+      <c r="K228" s="79"/>
+    </row>
+    <row r="229" spans="1:11" ht="30">
+      <c r="A229" s="79"/>
+      <c r="B229" s="79"/>
+      <c r="C229" s="80"/>
+      <c r="D229" s="80"/>
+      <c r="E229" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" s="81"/>
+      <c r="G229" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H229" s="81"/>
+      <c r="I229" s="81"/>
+      <c r="J229" s="81"/>
+      <c r="K229" s="79"/>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="79"/>
+      <c r="B230" s="79"/>
+      <c r="C230" s="80"/>
+      <c r="D230" s="80"/>
+      <c r="E230" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F230" s="81"/>
+      <c r="G230" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H230" s="81"/>
+      <c r="I230" s="81"/>
+      <c r="J230" s="81"/>
+      <c r="K230" s="79"/>
+    </row>
+    <row r="231" spans="1:11" ht="30">
+      <c r="A231" s="79"/>
+      <c r="B231" s="79"/>
+      <c r="C231" s="80"/>
+      <c r="D231" s="80"/>
+      <c r="E231" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F231" s="81"/>
+      <c r="G231" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H231" s="81"/>
+      <c r="I231" s="81"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="79"/>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="79"/>
+      <c r="B232" s="79"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="80"/>
+      <c r="E232" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F232" s="81"/>
+      <c r="G232" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="H232" s="81"/>
+      <c r="I232" s="81"/>
+      <c r="J232" s="81"/>
+      <c r="K232" s="79"/>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="79"/>
+      <c r="B233" s="79"/>
+      <c r="C233" s="80"/>
+      <c r="D233" s="80"/>
+      <c r="E233" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F233" s="81"/>
+      <c r="G233" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="H233" s="81"/>
+      <c r="I233" s="81"/>
+      <c r="J233" s="81"/>
+      <c r="K233" s="79"/>
+    </row>
+    <row r="234" spans="1:11" ht="30">
+      <c r="A234" s="79"/>
+      <c r="B234" s="79"/>
+      <c r="C234" s="80"/>
+      <c r="D234" s="80"/>
+      <c r="E234" s="81"/>
+      <c r="F234" s="81"/>
+      <c r="G234" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="H234" s="81"/>
+      <c r="I234" s="81"/>
+      <c r="J234" s="81"/>
+      <c r="K234" s="79"/>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C235" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E235" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="81"/>
+      <c r="G235" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H235" s="81"/>
+      <c r="I235" s="81"/>
+      <c r="J235" s="81"/>
+      <c r="K235" s="79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="79"/>
+      <c r="B236" s="79"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="80"/>
+      <c r="E236" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F236" s="81"/>
+      <c r="G236" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H236" s="81"/>
+      <c r="I236" s="81"/>
+      <c r="J236" s="81"/>
+      <c r="K236" s="79"/>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="79"/>
+      <c r="B237" s="79"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="80"/>
+      <c r="E237" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F237" s="81"/>
+      <c r="G237" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H237" s="81"/>
+      <c r="I237" s="81"/>
+      <c r="J237" s="81"/>
+      <c r="K237" s="79"/>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="79"/>
+      <c r="B238" s="79"/>
+      <c r="C238" s="80"/>
+      <c r="D238" s="80"/>
+      <c r="E238" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F238" s="81"/>
+      <c r="G238" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H238" s="81"/>
+      <c r="I238" s="81"/>
+      <c r="J238" s="81"/>
+      <c r="K238" s="79"/>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="79"/>
+      <c r="B239" s="79"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="80"/>
+      <c r="E239" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F239" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="G239" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H239" s="81"/>
+      <c r="I239" s="81"/>
+      <c r="J239" s="81"/>
+      <c r="K239" s="79"/>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="79"/>
+      <c r="B240" s="79"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G240" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H240" s="81"/>
+      <c r="I240" s="81"/>
+      <c r="J240" s="81"/>
+      <c r="K240" s="79"/>
+    </row>
+    <row r="241" spans="1:11" ht="30">
+      <c r="A241" s="79"/>
+      <c r="B241" s="79"/>
+      <c r="C241" s="80"/>
+      <c r="D241" s="80"/>
+      <c r="E241" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F241" s="81"/>
+      <c r="G241" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H241" s="81"/>
+      <c r="I241" s="81"/>
+      <c r="J241" s="81"/>
+      <c r="K241" s="79"/>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="79"/>
+      <c r="B242" s="79"/>
+      <c r="C242" s="80"/>
+      <c r="D242" s="80"/>
+      <c r="E242" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F242" s="81"/>
+      <c r="G242" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H242" s="81"/>
+      <c r="I242" s="81"/>
+      <c r="J242" s="81"/>
+      <c r="K242" s="79"/>
+    </row>
+    <row r="243" spans="1:11" ht="30">
+      <c r="A243" s="79"/>
+      <c r="B243" s="79"/>
+      <c r="C243" s="80"/>
+      <c r="D243" s="80"/>
+      <c r="E243" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F243" s="81"/>
+      <c r="G243" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H243" s="81"/>
+      <c r="I243" s="81"/>
+      <c r="J243" s="81"/>
+      <c r="K243" s="79"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="79"/>
+      <c r="B244" s="79"/>
+      <c r="C244" s="80"/>
+      <c r="D244" s="80"/>
+      <c r="E244" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F244" s="81"/>
+      <c r="G244" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H244" s="81"/>
+      <c r="I244" s="81"/>
+      <c r="J244" s="81"/>
+      <c r="K244" s="79"/>
+    </row>
+    <row r="245" spans="1:11" ht="30">
+      <c r="A245" s="79"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="80"/>
+      <c r="D245" s="80"/>
+      <c r="E245" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F245" s="81"/>
+      <c r="G245" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="H245" s="81"/>
+      <c r="I245" s="81"/>
+      <c r="J245" s="81"/>
+      <c r="K245" s="79"/>
+    </row>
+    <row r="246" spans="1:11" ht="30">
+      <c r="A246" s="79"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="80"/>
+      <c r="D246" s="80"/>
+      <c r="E246" s="81"/>
+      <c r="F246" s="81"/>
+      <c r="G246" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="H246" s="81"/>
+      <c r="I246" s="81"/>
+      <c r="J246" s="81"/>
+      <c r="K246" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A74:XFD74"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="K67:K73"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="K60:K66"/>
-    <mergeCell ref="A52:XFD52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="D53:D59"/>
-    <mergeCell ref="K53:K59"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="K45:K51"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="K38:K44"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="K31:K37"/>
+  <mergeCells count="136">
+    <mergeCell ref="A235:A246"/>
+    <mergeCell ref="B235:B246"/>
+    <mergeCell ref="C235:C246"/>
+    <mergeCell ref="D235:D246"/>
+    <mergeCell ref="K235:K246"/>
+    <mergeCell ref="A223:A234"/>
+    <mergeCell ref="B223:B234"/>
+    <mergeCell ref="C223:C234"/>
+    <mergeCell ref="D223:D234"/>
+    <mergeCell ref="K223:K234"/>
+    <mergeCell ref="A210:XFD210"/>
+    <mergeCell ref="A211:A222"/>
+    <mergeCell ref="B211:B222"/>
+    <mergeCell ref="C211:C222"/>
+    <mergeCell ref="D211:D222"/>
+    <mergeCell ref="K211:K222"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="B198:B209"/>
+    <mergeCell ref="C198:C209"/>
+    <mergeCell ref="D198:D209"/>
+    <mergeCell ref="K198:K209"/>
+    <mergeCell ref="D186:D197"/>
+    <mergeCell ref="C186:C197"/>
+    <mergeCell ref="B186:B197"/>
+    <mergeCell ref="A186:A197"/>
+    <mergeCell ref="K186:K197"/>
+    <mergeCell ref="K174:K185"/>
+    <mergeCell ref="A174:A185"/>
+    <mergeCell ref="B174:B185"/>
+    <mergeCell ref="C174:C185"/>
+    <mergeCell ref="D174:D185"/>
+    <mergeCell ref="A172:XFD172"/>
+    <mergeCell ref="J53:J59"/>
+    <mergeCell ref="J60:J66"/>
+    <mergeCell ref="J67:J73"/>
+    <mergeCell ref="A173:XFD173"/>
+    <mergeCell ref="A161:A171"/>
+    <mergeCell ref="B161:B171"/>
+    <mergeCell ref="C161:C171"/>
+    <mergeCell ref="D161:D171"/>
+    <mergeCell ref="K161:K171"/>
+    <mergeCell ref="A150:A160"/>
+    <mergeCell ref="B150:B160"/>
+    <mergeCell ref="C150:C160"/>
+    <mergeCell ref="D150:D160"/>
+    <mergeCell ref="K150:K160"/>
+    <mergeCell ref="A138:XFD138"/>
+    <mergeCell ref="A139:A149"/>
+    <mergeCell ref="B139:B149"/>
+    <mergeCell ref="C139:C149"/>
+    <mergeCell ref="D139:D149"/>
+    <mergeCell ref="K139:K149"/>
+    <mergeCell ref="D127:D137"/>
+    <mergeCell ref="K127:K137"/>
+    <mergeCell ref="A127:A137"/>
+    <mergeCell ref="B127:B137"/>
+    <mergeCell ref="C127:C137"/>
+    <mergeCell ref="A116:A126"/>
+    <mergeCell ref="B116:B126"/>
+    <mergeCell ref="C116:C126"/>
+    <mergeCell ref="D116:D126"/>
+    <mergeCell ref="K116:K126"/>
+    <mergeCell ref="A103:XFD103"/>
+    <mergeCell ref="A104:XFD104"/>
+    <mergeCell ref="D105:D115"/>
+    <mergeCell ref="C105:C115"/>
+    <mergeCell ref="B105:B115"/>
+    <mergeCell ref="A105:A115"/>
+    <mergeCell ref="K105:K115"/>
+    <mergeCell ref="A75:XFD75"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="K76:K84"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="K24:K30"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="K16:K22"/>
     <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A7:XFD7"/>
@@ -2957,18 +6487,50 @@
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="K16:K22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="K24:K30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="K38:K44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="K45:K51"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="K53:K59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="K60:K66"/>
+    <mergeCell ref="A74:XFD74"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="K67:K73"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="K85:K93"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="D94:D102"/>
+    <mergeCell ref="K94:K102"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="C85:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>